--- a/src/data/type-descriptions.xlsx
+++ b/src/data/type-descriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\enneagram-quiz\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B26332-4252-4BD2-B531-BF6331AC93D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DDFE11-8BE8-46F7-8D14-9555A6F32237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$264</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$263</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="261">
   <si>
     <t>Type Number</t>
   </si>
@@ -49,18 +49,9 @@
     <t>Motivation and core fears</t>
   </si>
   <si>
-    <t>This style stems from the need to be good, right, and beyond criticism. At their core, 1s carry a deep fear of being corrupt, defective, or morally wrong. This drives them to strive for perfection in their environment, often through meticulous attention to detail and rigid adherence to internal standards.</t>
-  </si>
-  <si>
-    <t>The 1's corrective strategies emerged early in life when they internalized that making mistakes was unacceptable and that they needed to be "the good child." This understanding leads to behaviors like constant self-monitoring, critiquing their environment, and maintaining high standards to prevent any possibility of being wrong or corrupt.</t>
-  </si>
-  <si>
     <t>Worldview and Focus of Attention</t>
   </si>
   <si>
-    <t>1s see the world through a lens of ideals and standards - how things should be versus how they are. Their attention naturally goes to detecting flaws and imperfections in themselves, others, and their environment, constantly scanning for what needs to be improved or corrected.</t>
-  </si>
-  <si>
     <t>They maintain a should/shouldn't worldview where actions and situations are often categorized as right or wrong, correct or incorrect, proper or improper. Their focus tends toward identifying what needs improvement and maintaining personal integrity.</t>
   </si>
   <si>
@@ -160,18 +151,6 @@
     <t>The Type 2 archetype is the empathetic helper and nurturer who moves through life attuned to others' needs and emotions. These individuals naturally assume the role of supporting and caring for others, finding their sense of value through being essential in others' lives.</t>
   </si>
   <si>
-    <t>This style stems from the need to be needed and loved. At their core, 2s carry a deep fear of being unwanted, unworthy of love, or dispensable. This drives them to make themselves indispensable to others, often through anticipating and meeting needs before they're expressed.</t>
-  </si>
-  <si>
-    <t>The 2's helping strategies emerged early in life when they learned that love was conditional and needs had to be earned. This understanding leads to behaviors like emotional caregiving, self-sacrifice, and maintaining relationships through becoming essential to others' wellbeing.</t>
-  </si>
-  <si>
-    <t>2s see the world through a lens of relationships and needs - who needs what and how they can help. Their attention naturally goes to detecting emotional and practical needs in others, constantly scanning for opportunities to be helpful and valued.</t>
-  </si>
-  <si>
-    <t>They maintain a relationship-centered worldview where situations are often evaluated based on how they affect connections and others' wellbeing. Their focus tends toward reading emotional cues and positioning themselves as helpful.</t>
-  </si>
-  <si>
     <t>2s are deeply empathetic, naturally attuned to the emotions and needs of others.</t>
   </si>
   <si>
@@ -244,12 +223,6 @@
     <t>The Type 3 archetype is the driven achiever and performer who moves through life focused on success and recognition. These individuals naturally shape themselves to embody excellence and admirable qualities, driven by an acute awareness of goals and image.</t>
   </si>
   <si>
-    <t>This style stems from the need to be valuable and successful. At their core, 3s carry a deep fear of being worthless, unsuccessful, or exposed as fraudulent. This drives them to constantly achieve and adapt their image to what will bring the most success and admiration.</t>
-  </si>
-  <si>
-    <t>The 3's achieving strategies emerged early in life when they learned that love and acceptance came through accomplishments rather than authentic self-expression. This leads to behaviors like relentless goal pursuit, image cultivation, and efficient performance.</t>
-  </si>
-  <si>
     <t>3s see the world through a lens of goals and achievements - what constitutes success and how to attain it. Their attention naturally goes to detecting what others value and identifying paths to success, constantly scanning for opportunities to shine and advance.</t>
   </si>
   <si>
@@ -655,18 +628,6 @@
     <t>The Type 8 archetype is the strong protector and challenger who moves against the world with direct force and intensity. These individuals naturally assume a powerful stance, taking up space both physically and energetically while wielding their strength to protect themselves and others they deem worthy of their loyalty.</t>
   </si>
   <si>
-    <t>This style stems from the need to be strong and avoid vulnerability. At their core, 8s carry a deep fear of being controlled, violated, or taken advantage of. This drives them to establish dominance and control in their environment, often through direct confrontation and displays of strength.</t>
-  </si>
-  <si>
-    <t>The 8's protective strategies emerged early in life when they learned that the world could be hostile and that weakness could lead to harm. This understanding leads to behaviors like testing others' strength, controlling their environment, and maintaining a tough exterior to prevent any exploitation of perceived softness.</t>
-  </si>
-  <si>
-    <t>8s see the world through a lens of power dynamics - who has it, who doesn't, and how it's being used. Their attention naturally goes to detecting weakness and strength in situations and people, constantly scanning for potential threats or attempts to control them.</t>
-  </si>
-  <si>
-    <t>They maintain a black-and-white worldview where people and situations are often categorized as either strong or weak, friend or foe, trustworthy or suspicious. Their focus tends toward sizing up power dynamics in any room they enter and identifying potential challenges to their autonomy.</t>
-  </si>
-  <si>
     <t>8s often miss their own impact on others, unaware of how their intensity can be overwhelming or intimidating. They frequently overlook the softer emotions in themselves and others, missing opportunities for connection through vulnerability.</t>
   </si>
   <si>
@@ -809,6 +770,49 @@
   </si>
   <si>
     <t>How can I embrace discomfort to create more meaningful connections?</t>
+  </si>
+  <si>
+    <t>This style stems from the need to be good, right, and beyond criticism. At their core, 1s carry a deep fear of being corrupt, defective, or morally wrong. This drives them to strive for perfection in their environment, often through meticulous attention to detail and rigid adherence to internal standards.
+The 1's corrective strategies emerged early in life when they internalized that making mistakes was unacceptable and that they needed to be "the good child." This understanding leads to behaviors like constant self-monitoring, critiquing their environment, and maintaining high standards to prevent any possibility of being wrong or corrupt.
+1s see the world through a lens of ideals and standards - how things should be versus how they are. Their attention naturally goes to detecting flaws and imperfections in themselves, others, and their environment, constantly scanning for what needs to be improved or corrected.</t>
+  </si>
+  <si>
+    <t>The Type 9 archetype is the peaceful mediator and harmonizer who values unity and seeks to maintain inner and outer peace. These individuals excel at fostering connection and avoiding conflict, driven by a desire for comfort and stability.</t>
+  </si>
+  <si>
+    <t>This style is rooted in the need for peace, harmony, and belonging. At their core, 9s fear disconnection, conflict, or loss of their sense of stability. They are motivated to create and preserve a peaceful environment and avoid being overlooked.</t>
+  </si>
+  <si>
+    <t>9s see the world as a place where unity and ease should be prioritized. Their attention naturally focuses on maintaining comfort, avoiding conflict, and going with the flow. They often merge with others’ agendas to keep the peace.</t>
+  </si>
+  <si>
+    <t>The Type 7 archetype is the enthusiastic visionary and adventurer who thrives on new experiences and possibilities. These individuals bring energy, creativity, and optimism to life, driven by a desire to avoid pain and maximize enjoyment.</t>
+  </si>
+  <si>
+    <t>This style is fueled by the need to avoid pain and limitation while seeking satisfaction and joy. At their core, 7s fear being trapped in discomfort, boredom, or emotional pain. They strive to maintain freedom and pursue new opportunities to keep life exciting.</t>
+  </si>
+  <si>
+    <t>7s see the world as a playground of possibilities, focusing on opportunities, enjoyable experiences, and ways to avoid unpleasant emotions. Their attention naturally goes to future plans, stimulating ideas, and what could bring excitement or satisfaction.</t>
+  </si>
+  <si>
+    <t>This style stems from the need to be needed and loved. At their core, 2s carry a deep fear of being unwanted, unworthy of love, or dispensable. This drives them to make themselves indispensable to others, often through anticipating and meeting needs before they're expressed.
+The 2's helping strategies emerged early in life when they learned that love was conditional and needs had to be earned. This understanding leads to behaviors like emotional caregiving, self-sacrifice, and maintaining relationships through becoming essential to others' wellbeing.</t>
+  </si>
+  <si>
+    <t>2s see the world through a lens of relationships and needs - who needs what and how they can help. Their attention naturally goes to detecting emotional and practical needs in others, constantly scanning for opportunities to be helpful and valued.
+They maintain a relationship-centered worldview where situations are often evaluated based on how they affect connections and others' wellbeing. Their focus tends toward reading emotional cues and positioning themselves as helpful.</t>
+  </si>
+  <si>
+    <t>This style stems from the need to be valuable and successful. At their core, 3s carry a deep fear of being worthless, unsuccessful, or exposed as fraudulent. This drives them to constantly achieve and adapt their image to what will bring the most success and admiration.
+The 3's achieving strategies emerged early in life when they learned that love and acceptance came through accomplishments rather than authentic self-expression. This leads to behaviors like relentless goal pursuit, image cultivation, and efficient performance.</t>
+  </si>
+  <si>
+    <t>This style stems from the need to be strong and avoid vulnerability. At their core, 8s carry a deep fear of being controlled, violated, or taken advantage of. This drives them to establish dominance and control in their environment, often through direct confrontation and displays of strength.
+The 8's protective strategies emerged early in life when they learned that the world could be hostile and that weakness could lead to harm. This understanding leads to behaviors like testing others' strength, controlling their environment, and maintaining a tough exterior to prevent any exploitation of perceived softness.</t>
+  </si>
+  <si>
+    <t>8s see the world through a lens of power dynamics - who has it, who doesn't, and how it's being used. Their attention naturally goes to detecting weakness and strength in situations and people, constantly scanning for potential threats or attempts to control them.
+They maintain a black-and-white worldview where people and situations are often categorized as either strong or weak, friend or foe, trustworthy or suspicious. Their focus tends toward sizing up power dynamics in any room they enter and identifying potential challenges to their autonomy.</t>
   </si>
 </sst>
 </file>
@@ -864,10 +868,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1171,16 +1178,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D264"/>
+  <dimension ref="A1:D263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E252" sqref="E252"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="C257" sqref="C257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="140.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1211,7 +1219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="216" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1221,8 +1229,8 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="D3" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1230,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1247,7 +1255,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1261,7 +1269,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1272,13 +1280,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1286,13 +1294,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1300,13 +1308,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1314,10 +1322,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -1328,10 +1336,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1342,13 +1350,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
         <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1356,10 +1364,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1370,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1384,13 +1392,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1398,13 +1406,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1412,10 +1420,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1426,10 +1434,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1440,13 +1448,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
         <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1454,13 +1462,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1468,13 +1476,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1482,10 +1490,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
         <v>32</v>
@@ -1496,10 +1504,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -1510,13 +1518,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
         <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1524,13 +1532,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1538,13 +1546,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1552,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1566,13 +1574,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1580,10 +1588,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
         <v>40</v>
@@ -1591,44 +1599,44 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
-      <c r="D32" t="s">
-        <v>44</v>
+      <c r="D32" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1636,13 +1644,13 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1650,13 +1658,13 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1667,10 +1675,10 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1681,10 +1689,10 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1692,13 +1700,13 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1706,13 +1714,13 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1720,13 +1728,13 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1734,13 +1742,13 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1748,13 +1756,13 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1762,13 +1770,13 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1776,13 +1784,13 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1790,13 +1798,13 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1804,13 +1812,13 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1818,13 +1826,13 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1832,13 +1840,13 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1846,13 +1854,13 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1860,13 +1868,13 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1874,13 +1882,13 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1888,13 +1896,13 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1902,13 +1910,13 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1916,13 +1924,13 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1930,13 +1938,13 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D54" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1944,13 +1952,13 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1958,13 +1966,13 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1972,69 +1980,69 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" t="s">
-        <v>70</v>
+        <v>5</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D61" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2042,13 +2050,13 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D62" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2056,13 +2064,13 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2070,13 +2078,13 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D64" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2087,10 +2095,10 @@
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2098,13 +2106,13 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D66" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2112,13 +2120,13 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2126,13 +2134,13 @@
         <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D68" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2140,13 +2148,13 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2154,13 +2162,13 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2168,13 +2176,13 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D71" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2182,13 +2190,13 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D72" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2196,13 +2204,13 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D73" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2210,13 +2218,13 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D74" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2224,13 +2232,13 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C75" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D75" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2238,13 +2246,13 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D76" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2252,13 +2260,13 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C77" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D77" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2266,13 +2274,13 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C78" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D78" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2280,13 +2288,13 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D79" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2294,13 +2302,13 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C80" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D80" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2308,13 +2316,13 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D81" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2322,13 +2330,13 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C82" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D82" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2336,13 +2344,13 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C83" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D83" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2350,13 +2358,13 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D84" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2364,13 +2372,13 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C85" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D85" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2378,13 +2386,13 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D86" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2392,83 +2400,83 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D87" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D91" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D92" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2476,13 +2484,13 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D93" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2490,13 +2498,13 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D94" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2507,10 +2515,10 @@
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D95" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2518,13 +2526,13 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D96" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2532,13 +2540,13 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D97" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2546,13 +2554,13 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D98" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2560,13 +2568,13 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D99" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2574,13 +2582,13 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D100" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2588,13 +2596,13 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D101" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2602,13 +2610,13 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D102" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2616,13 +2624,13 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C103" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D103" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2630,13 +2638,13 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C104" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D104" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2644,13 +2652,13 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C105" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D105" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2658,13 +2666,13 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C106" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D106" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2672,13 +2680,13 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C107" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D107" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2686,13 +2694,13 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C108" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D108" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2700,13 +2708,13 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C109" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D109" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2714,13 +2722,13 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C110" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D110" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2728,13 +2736,13 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C111" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D111" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2742,13 +2750,13 @@
         <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C112" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D112" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2756,13 +2764,13 @@
         <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C113" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D113" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2770,13 +2778,13 @@
         <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C114" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D114" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2784,13 +2792,13 @@
         <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C115" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D115" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2798,83 +2806,83 @@
         <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C116" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D116" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
+        <v>5</v>
+      </c>
+      <c r="B117" t="s">
         <v>4</v>
       </c>
-      <c r="B117" t="s">
-        <v>34</v>
-      </c>
       <c r="C117" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D117" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D118" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D119" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D120" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D121" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2882,13 +2890,13 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D122" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2896,13 +2904,13 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D123" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2913,10 +2921,10 @@
         <v>10</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D124" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2924,13 +2932,13 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D125" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2938,13 +2946,13 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D126" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2952,13 +2960,13 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D127" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2966,13 +2974,13 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D128" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2980,13 +2988,13 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D129" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2994,13 +3002,13 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C130" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D130" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -3008,13 +3016,13 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C131" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D131" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -3022,13 +3030,13 @@
         <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C132" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D132" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -3036,13 +3044,13 @@
         <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C133" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D133" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3050,13 +3058,13 @@
         <v>5</v>
       </c>
       <c r="B134" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C134" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D134" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -3064,13 +3072,13 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C135" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D135" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -3078,13 +3086,13 @@
         <v>5</v>
       </c>
       <c r="B136" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C136" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D136" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -3092,13 +3100,13 @@
         <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C137" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D137" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -3106,13 +3114,13 @@
         <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C138" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D138" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -3120,13 +3128,13 @@
         <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C139" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D139" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -3134,13 +3142,13 @@
         <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C140" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D140" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -3148,13 +3156,13 @@
         <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C141" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D141" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -3162,13 +3170,13 @@
         <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C142" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D142" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -3176,13 +3184,13 @@
         <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C143" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D143" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -3190,13 +3198,13 @@
         <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C144" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D144" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -3204,13 +3212,13 @@
         <v>5</v>
       </c>
       <c r="B145" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C145" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D145" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -3218,83 +3226,83 @@
         <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C146" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D146" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D147" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D148" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D149" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C150" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D150" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C151" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D151" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -3302,13 +3310,13 @@
         <v>6</v>
       </c>
       <c r="B152" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D152" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3316,13 +3324,13 @@
         <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C153" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D153" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3333,10 +3341,10 @@
         <v>10</v>
       </c>
       <c r="C154" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D154" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3344,13 +3352,13 @@
         <v>6</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D155" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3358,13 +3366,13 @@
         <v>6</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D156" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -3372,13 +3380,13 @@
         <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D157" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3386,13 +3394,13 @@
         <v>6</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C158" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D158" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3400,13 +3408,13 @@
         <v>6</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C159" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D159" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3414,13 +3422,13 @@
         <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C160" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D160" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3428,13 +3436,13 @@
         <v>6</v>
       </c>
       <c r="B161" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C161" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D161" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3442,13 +3450,13 @@
         <v>6</v>
       </c>
       <c r="B162" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C162" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D162" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3456,13 +3464,13 @@
         <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C163" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D163" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3470,13 +3478,13 @@
         <v>6</v>
       </c>
       <c r="B164" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C164" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D164" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3484,13 +3492,13 @@
         <v>6</v>
       </c>
       <c r="B165" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C165" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D165" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3498,13 +3506,13 @@
         <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C166" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D166" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -3512,13 +3520,13 @@
         <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C167" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D167" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3526,13 +3534,13 @@
         <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C168" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D168" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3540,13 +3548,13 @@
         <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C169" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D169" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -3554,13 +3562,13 @@
         <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C170" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D170" t="s">
-        <v>174</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3568,13 +3576,13 @@
         <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C171" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D171" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -3582,13 +3590,13 @@
         <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C172" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D172" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -3596,13 +3604,13 @@
         <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C173" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D173" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -3610,13 +3618,13 @@
         <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C174" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D174" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -3624,13 +3632,13 @@
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C175" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D175" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -3638,83 +3646,83 @@
         <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C176" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D176" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B177" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C177" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D177" t="s">
-        <v>180</v>
+        <v>253</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B178" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D178" t="s">
-        <v>181</v>
+        <v>254</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B179" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D179" t="s">
-        <v>182</v>
+        <v>255</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B180" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D180" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B181" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D181" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -3722,13 +3730,13 @@
         <v>7</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C182" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D182" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -3736,13 +3744,13 @@
         <v>7</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C183" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D183" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -3750,13 +3758,13 @@
         <v>7</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C184" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D184" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -3764,13 +3772,13 @@
         <v>7</v>
       </c>
       <c r="B185" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C185" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D185" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -3778,13 +3786,13 @@
         <v>7</v>
       </c>
       <c r="B186" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C186" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D186" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -3792,13 +3800,13 @@
         <v>7</v>
       </c>
       <c r="B187" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C187" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D187" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -3806,13 +3814,13 @@
         <v>7</v>
       </c>
       <c r="B188" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C188" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D188" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -3820,13 +3828,13 @@
         <v>7</v>
       </c>
       <c r="B189" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C189" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D189" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -3834,13 +3842,13 @@
         <v>7</v>
       </c>
       <c r="B190" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C190" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D190" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -3848,13 +3856,13 @@
         <v>7</v>
       </c>
       <c r="B191" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C191" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D191" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -3862,13 +3870,13 @@
         <v>7</v>
       </c>
       <c r="B192" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C192" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D192" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -3876,13 +3884,13 @@
         <v>7</v>
       </c>
       <c r="B193" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C193" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D193" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -3890,13 +3898,13 @@
         <v>7</v>
       </c>
       <c r="B194" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C194" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D194" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -3904,13 +3912,13 @@
         <v>7</v>
       </c>
       <c r="B195" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C195" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D195" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -3918,13 +3926,13 @@
         <v>7</v>
       </c>
       <c r="B196" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C196" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D196" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -3932,13 +3940,13 @@
         <v>7</v>
       </c>
       <c r="B197" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C197" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D197" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -3946,13 +3954,13 @@
         <v>7</v>
       </c>
       <c r="B198" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C198" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D198" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -3960,13 +3968,13 @@
         <v>7</v>
       </c>
       <c r="B199" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C199" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D199" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -3974,13 +3982,13 @@
         <v>7</v>
       </c>
       <c r="B200" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C200" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D200" t="s">
-        <v>202</v>
+        <v>33</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -3988,13 +3996,13 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C201" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D201" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -4002,13 +4010,13 @@
         <v>7</v>
       </c>
       <c r="B202" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C202" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D202" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -4016,13 +4024,13 @@
         <v>7</v>
       </c>
       <c r="B203" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C203" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D203" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -4030,13 +4038,13 @@
         <v>7</v>
       </c>
       <c r="B204" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C204" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D204" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -4044,13 +4052,13 @@
         <v>7</v>
       </c>
       <c r="B205" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C205" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D205" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -4058,55 +4066,55 @@
         <v>7</v>
       </c>
       <c r="B206" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C206" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D206" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
+        <v>8</v>
+      </c>
+      <c r="B207" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" t="s">
+        <v>5</v>
+      </c>
+      <c r="D207" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>8</v>
+      </c>
+      <c r="B208" t="s">
         <v>7</v>
       </c>
-      <c r="B207" t="s">
-        <v>34</v>
-      </c>
-      <c r="C207" t="s">
-        <v>42</v>
-      </c>
-      <c r="D207" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208">
-        <v>7</v>
-      </c>
-      <c r="B208" t="s">
-        <v>34</v>
-      </c>
       <c r="C208" t="s">
-        <v>42</v>
-      </c>
-      <c r="D208" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>8</v>
       </c>
       <c r="B209" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
       </c>
-      <c r="D209" t="s">
-        <v>209</v>
+      <c r="D209" s="2" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -4114,13 +4122,13 @@
         <v>8</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C210" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D210" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -4128,13 +4136,13 @@
         <v>8</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C211" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D211" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -4145,10 +4153,10 @@
         <v>10</v>
       </c>
       <c r="C212" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D212" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4159,10 +4167,10 @@
         <v>10</v>
       </c>
       <c r="C213" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D213" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4170,13 +4178,13 @@
         <v>8</v>
       </c>
       <c r="B214" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C214" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D214" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -4184,13 +4192,13 @@
         <v>8</v>
       </c>
       <c r="B215" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C215" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D215" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -4198,13 +4206,13 @@
         <v>8</v>
       </c>
       <c r="B216" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C216" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D216" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4212,13 +4220,13 @@
         <v>8</v>
       </c>
       <c r="B217" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C217" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D217" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -4226,13 +4234,13 @@
         <v>8</v>
       </c>
       <c r="B218" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C218" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D218" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -4240,13 +4248,13 @@
         <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C219" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D219" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -4254,13 +4262,13 @@
         <v>8</v>
       </c>
       <c r="B220" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C220" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D220" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4268,13 +4276,13 @@
         <v>8</v>
       </c>
       <c r="B221" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C221" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D221" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -4282,13 +4290,13 @@
         <v>8</v>
       </c>
       <c r="B222" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C222" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D222" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -4296,13 +4304,13 @@
         <v>8</v>
       </c>
       <c r="B223" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C223" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D223" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -4310,13 +4318,13 @@
         <v>8</v>
       </c>
       <c r="B224" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C224" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D224" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -4324,13 +4332,13 @@
         <v>8</v>
       </c>
       <c r="B225" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C225" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D225" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -4338,13 +4346,13 @@
         <v>8</v>
       </c>
       <c r="B226" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C226" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D226" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -4352,13 +4360,13 @@
         <v>8</v>
       </c>
       <c r="B227" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C227" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D227" t="s">
-        <v>227</v>
+        <v>33</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -4366,13 +4374,13 @@
         <v>8</v>
       </c>
       <c r="B228" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C228" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D228" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -4380,13 +4388,13 @@
         <v>8</v>
       </c>
       <c r="B229" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C229" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D229" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -4394,13 +4402,13 @@
         <v>8</v>
       </c>
       <c r="B230" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C230" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D230" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4408,13 +4416,13 @@
         <v>8</v>
       </c>
       <c r="B231" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C231" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D231" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -4422,13 +4430,13 @@
         <v>8</v>
       </c>
       <c r="B232" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C232" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D232" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -4436,69 +4444,69 @@
         <v>8</v>
       </c>
       <c r="B233" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C233" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D233" t="s">
-        <v>232</v>
+        <v>40</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B234" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C234" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D234" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B235" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D235" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
+        <v>9</v>
+      </c>
+      <c r="B236" t="s">
         <v>8</v>
       </c>
-      <c r="B236" t="s">
-        <v>34</v>
-      </c>
       <c r="C236" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D236" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B237" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C237" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D237" t="s">
-        <v>43</v>
+        <v>223</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4506,13 +4514,13 @@
         <v>9</v>
       </c>
       <c r="B238" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C238" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D238" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -4520,13 +4528,13 @@
         <v>9</v>
       </c>
       <c r="B239" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C239" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D239" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -4534,13 +4542,13 @@
         <v>9</v>
       </c>
       <c r="B240" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C240" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D240" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -4548,13 +4556,13 @@
         <v>9</v>
       </c>
       <c r="B241" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C241" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D241" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -4562,13 +4570,13 @@
         <v>9</v>
       </c>
       <c r="B242" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C242" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D242" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -4576,13 +4584,13 @@
         <v>9</v>
       </c>
       <c r="B243" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C243" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D243" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -4590,13 +4598,13 @@
         <v>9</v>
       </c>
       <c r="B244" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C244" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D244" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -4604,13 +4612,13 @@
         <v>9</v>
       </c>
       <c r="B245" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C245" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D245" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -4618,13 +4626,13 @@
         <v>9</v>
       </c>
       <c r="B246" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C246" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D246" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -4632,13 +4640,13 @@
         <v>9</v>
       </c>
       <c r="B247" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C247" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D247" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -4646,13 +4654,13 @@
         <v>9</v>
       </c>
       <c r="B248" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C248" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D248" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -4660,13 +4668,13 @@
         <v>9</v>
       </c>
       <c r="B249" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C249" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D249" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -4674,13 +4682,13 @@
         <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C250" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D250" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -4688,13 +4696,13 @@
         <v>9</v>
       </c>
       <c r="B251" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C251" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D251" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -4702,13 +4710,13 @@
         <v>9</v>
       </c>
       <c r="B252" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C252" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D252" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -4716,13 +4724,13 @@
         <v>9</v>
       </c>
       <c r="B253" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C253" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D253" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -4730,13 +4738,13 @@
         <v>9</v>
       </c>
       <c r="B254" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C254" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D254" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -4744,13 +4752,13 @@
         <v>9</v>
       </c>
       <c r="B255" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C255" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D255" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -4758,13 +4766,13 @@
         <v>9</v>
       </c>
       <c r="B256" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C256" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D256" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -4772,13 +4780,13 @@
         <v>9</v>
       </c>
       <c r="B257" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C257" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D257" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -4786,13 +4794,13 @@
         <v>9</v>
       </c>
       <c r="B258" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C258" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D258" t="s">
-        <v>256</v>
+        <v>33</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -4800,13 +4808,13 @@
         <v>9</v>
       </c>
       <c r="B259" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C259" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D259" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -4814,13 +4822,13 @@
         <v>9</v>
       </c>
       <c r="B260" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C260" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D260" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -4828,13 +4836,13 @@
         <v>9</v>
       </c>
       <c r="B261" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C261" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D261" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -4842,13 +4850,13 @@
         <v>9</v>
       </c>
       <c r="B262" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C262" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D262" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -4856,31 +4864,17 @@
         <v>9</v>
       </c>
       <c r="B263" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C263" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D263" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264">
-        <v>9</v>
-      </c>
-      <c r="B264" t="s">
-        <v>34</v>
-      </c>
-      <c r="C264" t="s">
-        <v>42</v>
-      </c>
-      <c r="D264" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D264" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D263" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>